--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r109_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r109_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3952" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +604,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +651,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +697,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -852,10 +864,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -899,28 +911,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -945,28 +957,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1054,10 +1066,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1101,28 +1113,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1147,28 +1159,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1227,10 +1239,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1274,28 +1286,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1320,28 +1332,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1545,10 +1557,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1592,28 +1604,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="2">
+      <c r="C51" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1638,28 +1650,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1776,10 +1788,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1823,28 +1835,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1869,28 +1881,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2007,10 +2019,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2054,28 +2066,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2100,28 +2112,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2267,10 +2279,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2314,28 +2326,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2360,28 +2372,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2498,10 +2510,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2545,28 +2557,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2591,28 +2603,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2671,10 +2683,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2718,28 +2730,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2764,28 +2776,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2844,10 +2856,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2891,28 +2903,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2937,28 +2949,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3017,10 +3029,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3064,28 +3076,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3110,28 +3122,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3277,10 +3289,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3324,28 +3336,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3370,28 +3382,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3537,10 +3549,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3584,28 +3596,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3630,28 +3642,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3710,10 +3722,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3757,28 +3769,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3803,28 +3815,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3883,10 +3895,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3930,28 +3942,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3976,28 +3988,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4056,10 +4068,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4103,28 +4115,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4149,28 +4161,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4229,10 +4241,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4276,28 +4288,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4322,28 +4334,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4402,10 +4414,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4449,28 +4461,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4495,28 +4507,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4633,10 +4645,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4680,28 +4692,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4726,28 +4738,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4806,10 +4818,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4853,28 +4865,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4899,28 +4911,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4979,10 +4991,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5026,28 +5038,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5072,28 +5084,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5210,10 +5222,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5257,28 +5269,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5303,28 +5315,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5441,10 +5453,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5488,28 +5500,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5534,28 +5546,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5614,10 +5626,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="2" t="s">
+      <c r="J190" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5661,28 +5673,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="2">
+      <c r="C192" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5707,28 +5719,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5787,10 +5799,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5834,28 +5846,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5880,28 +5892,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5960,10 +5972,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6007,28 +6019,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6053,28 +6065,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6191,10 +6203,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6238,28 +6250,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6284,28 +6296,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6364,10 +6376,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6411,28 +6423,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6457,28 +6469,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6537,10 +6549,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6584,28 +6596,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6630,28 +6642,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6826,10 +6838,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6873,28 +6885,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6919,28 +6931,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7057,10 +7069,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7104,28 +7116,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7150,28 +7162,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7230,10 +7242,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7277,28 +7289,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7323,28 +7335,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7403,10 +7415,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="2" t="s">
+      <c r="J252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7450,28 +7462,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="2">
+      <c r="A254" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="2">
+      <c r="C254" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7496,28 +7508,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="2">
+      <c r="C256" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="2">
+      <c r="D256" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="2">
+      <c r="I256" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7576,10 +7588,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7623,28 +7635,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7669,28 +7681,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7836,10 +7848,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7883,28 +7895,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7929,28 +7941,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8009,10 +8021,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="2" t="s">
+      <c r="J273" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8056,28 +8068,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="2">
+      <c r="A275" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="2">
+      <c r="C275" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8102,28 +8114,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="2">
+      <c r="C277" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="2">
+      <c r="D277" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="2">
+      <c r="I277" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8182,10 +8194,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="2" t="s">
+      <c r="J279" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8229,28 +8241,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="2">
+      <c r="A281" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="2">
+      <c r="C281" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8275,28 +8287,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="2">
+      <c r="C283" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="2">
+      <c r="D283" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="2">
+      <c r="I283" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8355,10 +8367,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="2" t="s">
+      <c r="J285" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8402,28 +8414,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="2">
+      <c r="A287" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="2">
+      <c r="C287" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8448,28 +8460,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="2">
+      <c r="C289" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="2">
+      <c r="D289" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="2">
+      <c r="I289" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8528,10 +8540,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="2" t="s">
+      <c r="J291" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8575,28 +8587,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="2">
+      <c r="A293" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="2">
+      <c r="C293" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8621,28 +8633,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="2">
+      <c r="C295" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="2">
+      <c r="D295" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="2">
+      <c r="I295" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8701,10 +8713,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="2" t="s">
+      <c r="J297" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8748,28 +8760,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="2">
+      <c r="A299" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="2">
+      <c r="C299" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8794,28 +8806,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="2">
+      <c r="C301" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="2">
+      <c r="D301" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="2">
+      <c r="I301" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8874,10 +8886,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="2" t="s">
+      <c r="J303" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8921,28 +8933,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="2">
+      <c r="A305" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="2">
+      <c r="C305" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8967,28 +8979,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="2">
+      <c r="C307" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="2">
+      <c r="D307" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="2">
+      <c r="I307" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9047,10 +9059,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="2" t="s">
+      <c r="J309" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9094,28 +9106,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="2">
+      <c r="A311" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="2">
+      <c r="C311" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9140,28 +9152,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="2">
+      <c r="C313" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="2">
+      <c r="D313" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="2">
+      <c r="I313" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9278,10 +9290,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="2" t="s">
+      <c r="J317" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9325,28 +9337,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="2">
+      <c r="A319" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="2">
+      <c r="C319" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9371,28 +9383,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="2">
+      <c r="C321" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="2">
+      <c r="D321" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="2">
+      <c r="I321" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9451,10 +9463,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="2" t="s">
+      <c r="J323" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9498,28 +9510,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="2">
+      <c r="A325" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="2">
+      <c r="C325" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9544,28 +9556,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="2">
+      <c r="C327" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="2">
+      <c r="D327" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="2">
+      <c r="I327" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9624,10 +9636,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="2" t="s">
+      <c r="J329" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9671,28 +9683,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="2">
+      <c r="A331" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="2">
+      <c r="C331" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9717,28 +9729,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="2">
+      <c r="C333" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="2">
+      <c r="D333" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="2">
+      <c r="I333" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9797,10 +9809,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="2" t="s">
+      <c r="J335" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9844,28 +9856,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="2">
+      <c r="A337" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="2">
+      <c r="C337" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9890,28 +9902,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="2">
+      <c r="C339" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="2">
+      <c r="D339" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="2">
+      <c r="I339" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9970,10 +9982,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="2" t="s">
+      <c r="J341" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
@@ -10017,28 +10029,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="s" s="2">
+      <c r="A343" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B343" t="s" s="2">
+      <c r="B343" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C343" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D343" t="s" s="2">
+      <c r="C343" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E343" t="s" s="2">
+      <c r="E343" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F343" t="s" s="2">
+      <c r="F343" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G343" t="s" s="2">
+      <c r="G343" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H343" t="s" s="2">
+      <c r="H343" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10063,28 +10075,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="B345" t="s" s="2">
+      <c r="B345" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C345" t="s" s="2">
+      <c r="C345" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D345" t="s" s="2">
+      <c r="D345" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E345" t="s" s="2">
+      <c r="E345" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F345" t="s" s="2">
+      <c r="F345" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G345" t="s" s="2">
+      <c r="G345" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H345" t="s" s="2">
+      <c r="H345" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I345" t="s" s="2">
+      <c r="I345" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10143,10 +10155,10 @@
       <c r="I347">
         <f>((C347-C346)^2+(D347- D346)^2)^.5</f>
       </c>
-      <c r="J347" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K347" s="2" t="s">
+      <c r="J347" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K347" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L347" t="n">
@@ -10190,28 +10202,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="2">
+      <c r="A349" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B349" t="s" s="2">
+      <c r="B349" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C349" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D349" t="s" s="2">
+      <c r="C349" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E349" t="s" s="2">
+      <c r="E349" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F349" t="s" s="2">
+      <c r="F349" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G349" t="s" s="2">
+      <c r="G349" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H349" t="s" s="2">
+      <c r="H349" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10236,28 +10248,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="2">
+      <c r="B351" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C351" t="s" s="2">
+      <c r="C351" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D351" t="s" s="2">
+      <c r="D351" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E351" t="s" s="2">
+      <c r="E351" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F351" t="s" s="2">
+      <c r="F351" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G351" t="s" s="2">
+      <c r="G351" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H351" t="s" s="2">
+      <c r="H351" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I351" t="s" s="2">
+      <c r="I351" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10316,10 +10328,10 @@
       <c r="I353">
         <f>((C353-C352)^2+(D353- D352)^2)^.5</f>
       </c>
-      <c r="J353" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K353" s="2" t="s">
+      <c r="J353" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K353" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L353" t="n">
@@ -10363,28 +10375,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="s" s="2">
+      <c r="A355" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B355" t="s" s="2">
+      <c r="B355" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C355" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D355" t="s" s="2">
+      <c r="C355" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D355" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E355" t="s" s="2">
+      <c r="E355" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F355" t="s" s="2">
+      <c r="F355" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G355" t="s" s="2">
+      <c r="G355" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H355" t="s" s="2">
+      <c r="H355" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10409,28 +10421,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="B357" t="s" s="2">
+      <c r="B357" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C357" t="s" s="2">
+      <c r="C357" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D357" t="s" s="2">
+      <c r="D357" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E357" t="s" s="2">
+      <c r="E357" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F357" t="s" s="2">
+      <c r="F357" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G357" t="s" s="2">
+      <c r="G357" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H357" t="s" s="2">
+      <c r="H357" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I357" t="s" s="2">
+      <c r="I357" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10489,10 +10501,10 @@
       <c r="I359">
         <f>((C359-C358)^2+(D359- D358)^2)^.5</f>
       </c>
-      <c r="J359" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K359" s="2" t="s">
+      <c r="J359" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K359" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L359" t="n">
@@ -10536,28 +10548,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="s" s="2">
+      <c r="A361" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B361" t="s" s="2">
+      <c r="B361" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C361" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D361" t="s" s="2">
+      <c r="C361" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D361" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E361" t="s" s="2">
+      <c r="E361" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F361" t="s" s="2">
+      <c r="F361" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G361" t="s" s="2">
+      <c r="G361" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H361" t="s" s="2">
+      <c r="H361" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10582,28 +10594,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="B363" t="s" s="2">
+      <c r="B363" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C363" t="s" s="2">
+      <c r="C363" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D363" t="s" s="2">
+      <c r="D363" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E363" t="s" s="2">
+      <c r="E363" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F363" t="s" s="2">
+      <c r="F363" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G363" t="s" s="2">
+      <c r="G363" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H363" t="s" s="2">
+      <c r="H363" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I363" t="s" s="2">
+      <c r="I363" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10662,10 +10674,10 @@
       <c r="I365">
         <f>((C365-C364)^2+(D365- D364)^2)^.5</f>
       </c>
-      <c r="J365" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K365" s="2" t="s">
+      <c r="J365" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K365" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L365" t="n">
@@ -10709,28 +10721,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="s" s="2">
+      <c r="A367" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B367" t="s" s="2">
+      <c r="B367" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C367" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D367" t="s" s="2">
+      <c r="C367" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D367" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E367" t="s" s="2">
+      <c r="E367" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F367" t="s" s="2">
+      <c r="F367" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G367" t="s" s="2">
+      <c r="G367" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H367" t="s" s="2">
+      <c r="H367" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10755,28 +10767,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="B369" t="s" s="2">
+      <c r="B369" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C369" t="s" s="2">
+      <c r="C369" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D369" t="s" s="2">
+      <c r="D369" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E369" t="s" s="2">
+      <c r="E369" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F369" t="s" s="2">
+      <c r="F369" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G369" t="s" s="2">
+      <c r="G369" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H369" t="s" s="2">
+      <c r="H369" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I369" t="s" s="2">
+      <c r="I369" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10835,10 +10847,10 @@
       <c r="I371">
         <f>((C371-C370)^2+(D371- D370)^2)^.5</f>
       </c>
-      <c r="J371" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K371" s="2" t="s">
+      <c r="J371" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K371" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L371" t="n">
